--- a/medicine/Sexualité et sexologie/365_Jours___Au_lendemain/365_Jours___Au_lendemain.xlsx
+++ b/medicine/Sexualité et sexologie/365_Jours___Au_lendemain/365_Jours___Au_lendemain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">365 Jours : Au lendemain (365 dni. Ten dzień) est un film polonais dramatico-érotique réalisé par Barbara Bialowas et Tomasz Mandes, sorti en 2022. Il s'agit de la suite de 365 Jours et du second volet de la trilogie des relations de Massimo et Laura
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Massimo et Laura se marient. Cette dernière a perdu son bébé à la suite de l'accident qui clôturait le premier film. Ils sont heureux mais Laura commence à s'ennuyer parce que Massimo est accaparé par son travail. Elle jette son dévolu sur Nacho, le jardinier de Massimo. Puis, elle surprend Massimo en train de faire l'amour avec son ex-petite amie. Elle s'enfuit alors de l'île avec Nacho.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre original polonais : 365 dni: Ten dzień
@@ -559,21 +575,21 @@
 Son : Krzysztof Klimko, Rafal Lenart, Marcin Matlak, Adam Szlenda
 Montage : Marcin Drewnowski
 Production : Maciej Kawulski, Ewa Lewandowska et Tomasz Mandes
-Sociétés de production[1] : Ekipa et Open Mind Production, présenté par Netflix
+Sociétés de production : Ekipa et Open Mind Production, présenté par Netflix
 Sociétés de distribution : Netflix
 Budget : n/a
 Pays de production :  Pologne
 Langues originales : polonais, italien, anglais
-Format[2] : couleur - 35 mm - 2,35:1 (Cinémascope) - son Dolby Digital
+Format : couleur - 35 mm - 2,35:1 (Cinémascope) - son Dolby Digital
 Genre : drame, érotique, romance
 Durée : 111 minutes
-Dates de sortie[3] :
-Pologne, France, Québec : 27 avril 2022 (sortie sur Netflix)[4]
-Classification[5] :
-Pologne : plus de 16 ans[6]
-France : interdit aux moins de 16 ans, conseillé aux 16 ans et plus sur Netflix[7]
-Québec : en attente de classement[4]
-Belgique : potentiellement préjudiciable jusqu'à 16 ans (KNT/ENA : Kinderen Niet Toegelaten  / Enfants Non Admis)[8],[N 1]</t>
+Dates de sortie :
+Pologne, France, Québec : 27 avril 2022 (sortie sur Netflix)
+Classification :
+Pologne : plus de 16 ans
+France : interdit aux moins de 16 ans, conseillé aux 16 ans et plus sur Netflix
+Québec : en attente de classement
+Belgique : potentiellement préjudiciable jusqu'à 16 ans (KNT/ENA : Kinderen Niet Toegelaten  / Enfants Non Admis),[N 1]</t>
         </is>
       </c>
     </row>
@@ -601,7 +617,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anna-Maria Sieklucka (VF : Stéphanie Lafforgue) : Laura Torricelli
 Michele Morrone (VF : Anatole de Bodinat) : Massimo / Adriano
@@ -646,8 +664,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suite
-Le troisième opus est sorti la même année sous le titre 365 Jours : l'année d'après
+          <t>Suite</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le troisième opus est sorti la même année sous le titre 365 Jours : l'année d'après
 </t>
         </is>
       </c>
@@ -676,9 +699,11 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a reçu un accueil très défavorable de la critique. Il obtient un score moyen de 8 % sur Metacritic[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu un accueil très défavorable de la critique. Il obtient un score moyen de 8 % sur Metacritic.
 </t>
         </is>
       </c>
@@ -707,9 +732,11 @@
           <t>Nominations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.[10],[11]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.,
 Razzie Awards 2023 :
 Pire couple à l'écran
 Pire suite, prequel, remake ou dérivé</t>
